--- a/kraken/test_Chart.xlsx
+++ b/kraken/test_Chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,9 +165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -571,73 +568,73 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>100</v>
-      </c>
-      <c r="J3" s="5">
-        <v>100</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>100</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>100</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
@@ -645,73 +642,73 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>100</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>11.11</v>
-      </c>
-      <c r="G4" s="5">
-        <v>100</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>100</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>100</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>100</v>
-      </c>
-      <c r="R4" s="4">
-        <v>11.11</v>
-      </c>
-      <c r="S4" s="5">
-        <v>100</v>
-      </c>
-      <c r="T4" s="5">
-        <v>100</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4" s="4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>100</v>
+      </c>
+      <c r="T4" s="4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
@@ -719,73 +716,73 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>100</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>100</v>
-      </c>
-      <c r="V5" s="5">
-        <v>100</v>
-      </c>
-      <c r="W5" s="5">
-        <v>100</v>
-      </c>
-      <c r="X5" s="5">
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5" s="4">
+        <v>100</v>
+      </c>
+      <c r="V5" s="4">
+        <v>100</v>
+      </c>
+      <c r="W5" s="4">
+        <v>100</v>
+      </c>
+      <c r="X5" s="4">
         <v>100</v>
       </c>
     </row>
@@ -793,73 +790,73 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
         <v>88.89</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>100</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>88.89</v>
       </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
